--- a/CorpusOfNewsHeadlines.xlsx
+++ b/CorpusOfNewsHeadlines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBB042-D292-4312-A85E-9ACD8D240E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F941E16-0DB0-41CD-A172-B8420F3152BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12855,7 +12855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
